--- a/data/RJ/PAINEL CORONAVIRUS COVID-19.xlsx
+++ b/data/RJ/PAINEL CORONAVIRUS COVID-19.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Série Histórica Taxa de  Ocupação</t>
   </si>
@@ -25,15 +25,6 @@
     <t xml:space="preserve">UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">2020-04 01-19 - 01-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-18 04-26 - 05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-31 07-26 - 08-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">2020-32 08-02 - 08-08</t>
   </si>
   <si>
@@ -155,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">2021-19 05-09 - 05-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-20 05-16 - 05-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-21 05-23 - 05-29</t>
   </si>
 </sst>
 </file>
@@ -273,7 +270,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -300,17 +297,21 @@
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>0.141414141414141</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.336065573770492</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5">
+        <v>0.310344827586207</v>
+      </c>
       <c r="C5" s="5">
-        <v>0.914285714285714</v>
+        <v>0.325581395348837</v>
       </c>
     </row>
     <row r="6">
@@ -318,10 +319,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>0.399698340874812</v>
       </c>
       <c r="C6" s="5">
-        <v>0.214285714285714</v>
+        <v>0.477516059957173</v>
       </c>
     </row>
     <row r="7">
@@ -329,10 +330,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>0.141414141414141</v>
+        <v>0.338912133891213</v>
       </c>
       <c r="C7" s="5">
-        <v>0.336065573770492</v>
+        <v>0.451557093425606</v>
       </c>
     </row>
     <row r="8">
@@ -340,10 +341,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>0.310344827586207</v>
+        <v>0.308045977011494</v>
       </c>
       <c r="C8" s="5">
-        <v>0.325581395348837</v>
+        <v>0.426446280991736</v>
       </c>
     </row>
     <row r="9">
@@ -351,10 +352,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>0.399698340874812</v>
+        <v>0.299658703071672</v>
       </c>
       <c r="C9" s="5">
-        <v>0.477516059957173</v>
+        <v>0.432777232580962</v>
       </c>
     </row>
     <row r="10">
@@ -362,10 +363,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>0.338912133891213</v>
+        <v>0.276103336921421</v>
       </c>
       <c r="C10" s="5">
-        <v>0.451557093425606</v>
+        <v>0.343818580833943</v>
       </c>
     </row>
     <row r="11">
@@ -373,10 +374,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>0.308045977011494</v>
+        <v>0.318278052223006</v>
       </c>
       <c r="C11" s="5">
-        <v>0.426446280991736</v>
+        <v>0.377822378324134</v>
       </c>
     </row>
     <row r="12">
@@ -384,10 +385,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>0.299658703071672</v>
+        <v>0.314987977558109</v>
       </c>
       <c r="C12" s="5">
-        <v>0.432777232580962</v>
+        <v>0.419992251065479</v>
       </c>
     </row>
     <row r="13">
@@ -395,10 +396,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>0.276103336921421</v>
+        <v>0.238247243180499</v>
       </c>
       <c r="C13" s="5">
-        <v>0.343818580833943</v>
+        <v>0.382528919026725</v>
       </c>
     </row>
     <row r="14">
@@ -406,10 +407,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>0.318278052223006</v>
+        <v>0.254860903380197</v>
       </c>
       <c r="C14" s="5">
-        <v>0.377822378324134</v>
+        <v>0.338343108504399</v>
       </c>
     </row>
     <row r="15">
@@ -417,10 +418,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>0.314987977558109</v>
+        <v>0.248070877393541</v>
       </c>
       <c r="C15" s="5">
-        <v>0.419992251065479</v>
+        <v>0.370084527747152</v>
       </c>
     </row>
     <row r="16">
@@ -428,10 +429,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="5">
-        <v>0.238247243180499</v>
+        <v>0.286380869058034</v>
       </c>
       <c r="C16" s="5">
-        <v>0.382528919026725</v>
+        <v>0.35364238410596</v>
       </c>
     </row>
     <row r="17">
@@ -439,10 +440,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>0.254860903380197</v>
+        <v>0.325156873930405</v>
       </c>
       <c r="C17" s="5">
-        <v>0.338343108504399</v>
+        <v>0.431189810500155</v>
       </c>
     </row>
     <row r="18">
@@ -450,10 +451,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>0.248070877393541</v>
+        <v>0.29131415679639</v>
       </c>
       <c r="C18" s="5">
-        <v>0.370084527747152</v>
+        <v>0.466620062915065</v>
       </c>
     </row>
     <row r="19">
@@ -461,10 +462,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>0.286380869058034</v>
+        <v>0.388657214345288</v>
       </c>
       <c r="C19" s="5">
-        <v>0.35364238410596</v>
+        <v>0.48984962406015</v>
       </c>
     </row>
     <row r="20">
@@ -472,10 +473,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>0.325156873930405</v>
+        <v>0.483429076447194</v>
       </c>
       <c r="C20" s="5">
-        <v>0.431189810500155</v>
+        <v>0.623109108464757</v>
       </c>
     </row>
     <row r="21">
@@ -483,10 +484,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>0.29131415679639</v>
+        <v>0.575736488053816</v>
       </c>
       <c r="C21" s="5">
-        <v>0.466620062915065</v>
+        <v>0.673795084583466</v>
       </c>
     </row>
     <row r="22">
@@ -494,10 +495,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>0.388657214345288</v>
+        <v>0.643594414086217</v>
       </c>
       <c r="C22" s="5">
-        <v>0.48984962406015</v>
+        <v>0.68726079825041</v>
       </c>
     </row>
     <row r="23">
@@ -505,10 +506,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>0.483429076447194</v>
+        <v>0.677666595699383</v>
       </c>
       <c r="C23" s="5">
-        <v>0.623109108464757</v>
+        <v>0.711795467751307</v>
       </c>
     </row>
     <row r="24">
@@ -516,10 +517,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="5">
-        <v>0.575736488053816</v>
+        <v>0.571464143426295</v>
       </c>
       <c r="C24" s="5">
-        <v>0.673795084583466</v>
+        <v>0.705781731098187</v>
       </c>
     </row>
     <row r="25">
@@ -527,10 +528,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>0.643594414086217</v>
+        <v>0.51162275846801</v>
       </c>
       <c r="C25" s="5">
-        <v>0.68726079825041</v>
+        <v>0.671665104654795</v>
       </c>
     </row>
     <row r="26">
@@ -538,10 +539,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>0.677666595699383</v>
+        <v>0.506417970316887</v>
       </c>
       <c r="C26" s="5">
-        <v>0.711795467751307</v>
+        <v>0.632137733142037</v>
       </c>
     </row>
     <row r="27">
@@ -549,10 +550,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <v>0.571464143426295</v>
+        <v>0.538838670139421</v>
       </c>
       <c r="C27" s="5">
-        <v>0.705781731098187</v>
+        <v>0.643920068027211</v>
       </c>
     </row>
     <row r="28">
@@ -560,10 +561,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="5">
-        <v>0.51162275846801</v>
+        <v>0.508615654205608</v>
       </c>
       <c r="C28" s="5">
-        <v>0.671665104654795</v>
+        <v>0.663309899296979</v>
       </c>
     </row>
     <row r="29">
@@ -571,10 +572,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>0.506417970316887</v>
+        <v>0.549832983764468</v>
       </c>
       <c r="C29" s="5">
-        <v>0.632137733142037</v>
+        <v>0.645371947756956</v>
       </c>
     </row>
     <row r="30">
@@ -582,10 +583,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="5">
-        <v>0.538838670139421</v>
+        <v>0.517723634444542</v>
       </c>
       <c r="C30" s="5">
-        <v>0.643920068027211</v>
+        <v>0.651848542388026</v>
       </c>
     </row>
     <row r="31">
@@ -593,10 +594,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="5">
-        <v>0.508615654205608</v>
+        <v>0.475847211865109</v>
       </c>
       <c r="C31" s="5">
-        <v>0.663309899296979</v>
+        <v>0.593665907679569</v>
       </c>
     </row>
     <row r="32">
@@ -604,10 +605,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="5">
-        <v>0.549832983764468</v>
+        <v>0.484425932633104</v>
       </c>
       <c r="C32" s="5">
-        <v>0.645371947756956</v>
+        <v>0.638145756457565</v>
       </c>
     </row>
     <row r="33">
@@ -615,10 +616,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="5">
-        <v>0.517723634444542</v>
+        <v>0.510504201680672</v>
       </c>
       <c r="C33" s="5">
-        <v>0.651848542388026</v>
+        <v>0.682520414919444</v>
       </c>
     </row>
     <row r="34">
@@ -626,10 +627,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="5">
-        <v>0.475847211865109</v>
+        <v>0.524611398963731</v>
       </c>
       <c r="C34" s="5">
-        <v>0.593665907679569</v>
+        <v>0.728765393116514</v>
       </c>
     </row>
     <row r="35">
@@ -637,10 +638,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="5">
-        <v>0.484425932633104</v>
+        <v>0.569181834246333</v>
       </c>
       <c r="C35" s="5">
-        <v>0.638145756457565</v>
+        <v>0.755799240826655</v>
       </c>
     </row>
     <row r="36">
@@ -648,10 +649,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="5">
-        <v>0.511429069970337</v>
+        <v>0.838922764227642</v>
       </c>
       <c r="C36" s="5">
-        <v>0.683315038419319</v>
+        <v>0.833430450345459</v>
       </c>
     </row>
     <row r="37">
@@ -659,10 +660,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="5">
-        <v>0.524611398963731</v>
+        <v>0.743743482794578</v>
       </c>
       <c r="C37" s="5">
-        <v>0.728765393116514</v>
+        <v>0.889599488368375</v>
       </c>
     </row>
     <row r="38">
@@ -670,10 +671,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="5">
-        <v>0.569181834246333</v>
+        <v>0.812931172789989</v>
       </c>
       <c r="C38" s="5">
-        <v>0.755799240826655</v>
+        <v>0.906985948941223</v>
       </c>
     </row>
     <row r="39">
@@ -681,10 +682,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="5">
-        <v>0.839579886339112</v>
+        <v>0.785312230978081</v>
       </c>
       <c r="C39" s="5">
-        <v>0.833980021464542</v>
+        <v>0.912428932406822</v>
       </c>
     </row>
     <row r="40">
@@ -692,10 +693,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="5">
-        <v>0.743743482794578</v>
+        <v>0.706714027023262</v>
       </c>
       <c r="C40" s="5">
-        <v>0.889599488368375</v>
+        <v>0.873968755485343</v>
       </c>
     </row>
     <row r="41">
@@ -703,10 +704,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="5">
-        <v>0.812931172789989</v>
+        <v>0.698536699119688</v>
       </c>
       <c r="C41" s="5">
-        <v>0.906985948941223</v>
+        <v>0.871666188700889</v>
       </c>
     </row>
     <row r="42">
@@ -714,10 +715,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="5">
-        <v>0.785312230978081</v>
+        <v>0.658909533962839</v>
       </c>
       <c r="C42" s="5">
-        <v>0.912428932406822</v>
+        <v>0.869858761446531</v>
       </c>
     </row>
     <row r="43">
@@ -725,10 +726,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="5">
-        <v>0.706714027023262</v>
+        <v>0.646551218080423</v>
       </c>
       <c r="C43" s="5">
-        <v>0.873968755485343</v>
+        <v>0.867696249377269</v>
       </c>
     </row>
     <row r="44">
@@ -736,10 +737,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="5">
-        <v>0.698536699119688</v>
+        <v>0.64326280971104</v>
       </c>
       <c r="C44" s="5">
-        <v>0.871666188700889</v>
+        <v>0.859118664018245</v>
       </c>
     </row>
     <row r="45">
@@ -747,10 +748,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="5">
-        <v>0.658909533962839</v>
+        <v>0.638694784127776</v>
       </c>
       <c r="C45" s="5">
-        <v>0.869858761446531</v>
+        <v>0.832693963829954</v>
       </c>
     </row>
     <row r="46">
@@ -758,30 +759,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="5">
-        <v>0.646737534504023</v>
+        <v>0.657161166292855</v>
       </c>
       <c r="C46" s="5">
-        <v>0.867673242646535</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="5">
-        <v>0.673000234576589</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0.879909766454353</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="s"/>
-      <c r="B48" s="5">
-        <v>0.628571428571429</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0.75</v>
+        <v>0.856721371934354</v>
       </c>
     </row>
   </sheetData>

--- a/data/RJ/PAINEL CORONAVIRUS COVID-19.xlsx
+++ b/data/RJ/PAINEL CORONAVIRUS COVID-19.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Série Histórica Taxa de  Ocupação</t>
   </si>
@@ -152,6 +152,42 @@
   </si>
   <si>
     <t xml:space="preserve">2021-21 05-23 - 05-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-22 05-30 - 06-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-23 06-06 - 06-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-24 06-13 - 06-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-25 06-20 - 06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-26 06-27 - 07-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-27 07-04 - 07-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-28 07-11 - 07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-29 07-18 - 07-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-30 07-25 - 07-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-31 08-01 - 08-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-32 08-08 - 08-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-33 08-15 - 08-21</t>
   </si>
 </sst>
 </file>
@@ -270,7 +306,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +432,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>0.238247243180499</v>
+        <v>0.236811594202899</v>
       </c>
       <c r="C13" s="5">
         <v>0.382528919026725</v>
@@ -407,7 +443,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>0.254860903380197</v>
+        <v>0.253365240801675</v>
       </c>
       <c r="C14" s="5">
         <v>0.338343108504399</v>
@@ -454,7 +490,7 @@
         <v>0.29131415679639</v>
       </c>
       <c r="C18" s="5">
-        <v>0.466620062915065</v>
+        <v>0.462530498431509</v>
       </c>
     </row>
     <row r="19">
@@ -473,7 +509,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>0.483429076447194</v>
+        <v>0.481465136804943</v>
       </c>
       <c r="C20" s="5">
         <v>0.623109108464757</v>
@@ -495,7 +531,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>0.643594414086217</v>
+        <v>0.641932875050546</v>
       </c>
       <c r="C22" s="5">
         <v>0.68726079825041</v>
@@ -572,10 +608,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>0.549832983764468</v>
+        <v>0.546561825470244</v>
       </c>
       <c r="C29" s="5">
-        <v>0.645371947756956</v>
+        <v>0.642837065492364</v>
       </c>
     </row>
     <row r="30">
@@ -605,10 +641,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="5">
-        <v>0.484425932633104</v>
+        <v>0.483955527433788</v>
       </c>
       <c r="C32" s="5">
-        <v>0.638145756457565</v>
+        <v>0.637829743117152</v>
       </c>
     </row>
     <row r="33">
@@ -619,7 +655,7 @@
         <v>0.510504201680672</v>
       </c>
       <c r="C33" s="5">
-        <v>0.682520414919444</v>
+        <v>0.682760141093474</v>
       </c>
     </row>
     <row r="34">
@@ -649,7 +685,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="5">
-        <v>0.838922764227642</v>
+        <v>0.642929732868757</v>
       </c>
       <c r="C36" s="5">
         <v>0.833430450345459</v>
@@ -671,10 +707,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="5">
-        <v>0.812931172789989</v>
+        <v>0.809262789958691</v>
       </c>
       <c r="C38" s="5">
-        <v>0.906985948941223</v>
+        <v>0.903323855279929</v>
       </c>
     </row>
     <row r="39">
@@ -693,10 +729,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="5">
-        <v>0.706714027023262</v>
+        <v>0.706087198774203</v>
       </c>
       <c r="C40" s="5">
-        <v>0.873968755485343</v>
+        <v>0.873553139249386</v>
       </c>
     </row>
     <row r="41">
@@ -715,10 +751,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="5">
-        <v>0.658909533962839</v>
+        <v>0.656773488710852</v>
       </c>
       <c r="C42" s="5">
-        <v>0.869858761446531</v>
+        <v>0.867184495885565</v>
       </c>
     </row>
     <row r="43">
@@ -726,10 +762,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="5">
-        <v>0.646551218080423</v>
+        <v>0.643865048487312</v>
       </c>
       <c r="C43" s="5">
-        <v>0.867696249377269</v>
+        <v>0.867366479892191</v>
       </c>
     </row>
     <row r="44">
@@ -737,10 +773,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="5">
-        <v>0.64326280971104</v>
+        <v>0.642656863355972</v>
       </c>
       <c r="C44" s="5">
-        <v>0.859118664018245</v>
+        <v>0.858854664412262</v>
       </c>
     </row>
     <row r="45">
@@ -748,10 +784,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="5">
-        <v>0.638694784127776</v>
+        <v>0.632917644153599</v>
       </c>
       <c r="C45" s="5">
-        <v>0.832693963829954</v>
+        <v>0.83166692704265</v>
       </c>
     </row>
     <row r="46">
@@ -759,10 +795,142 @@
         <v>46</v>
       </c>
       <c r="B46" s="5">
-        <v>0.657161166292855</v>
+        <v>0.624864929763477</v>
       </c>
       <c r="C46" s="5">
-        <v>0.856721371934354</v>
+        <v>0.847915712322492</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.564225352112676</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.826630920464701</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.528395061728395</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.78292438657987</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.44550178060599</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.707391236550756</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.414288633113124</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0.632911392405063</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.414577259475219</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.649962532783814</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.403827619441002</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.584070796460177</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.385993092924263</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.575491895198287</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.38153657414507</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.562208611390438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.352398090916204</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.517702070808283</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.379781420765027</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.617480016827934</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.437540333732829</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0.663340876362888</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.357777777777778</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.557074910820452</v>
       </c>
     </row>
   </sheetData>
